--- a/PointsTiming/التجمع/Daily/تجمع يوم 2-9-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 2-9-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -2142,7 +2142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,6 +2257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2612,7 +2614,7 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2698,57 +2700,57 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:8">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="115"/>
       <c r="E6" s="115"/>
-      <c r="F6" s="81"/>
-      <c r="H6" s="88"/>
+      <c r="F6" s="80"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" ht="18.5" spans="1:6">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="80">
         <v>0.298611111111111</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="115"/>
       <c r="E7" s="115"/>
-      <c r="F7" s="81">
+      <c r="F7" s="80">
         <v>0.315972222222222</v>
       </c>
     </row>
     <row r="8" ht="18.5" spans="1:6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>0.333333333333333</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>0.340277777777777</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <v>0.350694444444445</v>
       </c>
     </row>
     <row r="9" ht="18.5" spans="1:6">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80">
         <v>0.381944444444444</v>
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
-      <c r="F9" s="81">
+      <c r="F9" s="80">
         <v>0.392361111111112</v>
       </c>
     </row>
@@ -2756,80 +2758,80 @@
       <c r="A10" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80">
         <v>0.42361111111111</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="115"/>
-      <c r="F10" s="81">
+      <c r="F10" s="80">
         <v>0.434027777777779</v>
       </c>
     </row>
     <row r="11" ht="18.5" spans="1:6">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="115"/>
       <c r="E11" s="115"/>
-      <c r="F11" s="81"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" ht="18.5" spans="1:6">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="115"/>
       <c r="E12" s="115"/>
-      <c r="F12" s="81"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" ht="18.5" spans="1:6">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
-      <c r="F13" s="81"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" ht="18.5" spans="1:6">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
-      <c r="F14" s="81"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" ht="18.5" spans="1:6">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80">
         <v>0.631944444444444</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="81"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" ht="18.5" spans="1:6">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="81"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" ht="18.5" spans="1:6">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="34"/>
@@ -2839,7 +2841,7 @@
       <c r="F17" s="34"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="34"/>
@@ -2849,7 +2851,7 @@
       <c r="F18" s="34"/>
     </row>
     <row r="19" ht="18.5" spans="1:6">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="34"/>
@@ -2859,7 +2861,7 @@
       <c r="F19" s="34"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="34"/>
@@ -2869,7 +2871,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" ht="18.5" spans="1:6">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="34"/>
@@ -2879,7 +2881,7 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" ht="18.5" hidden="1" spans="1:6">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
@@ -2889,7 +2891,7 @@
       <c r="F22" s="34"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="34"/>
@@ -2899,7 +2901,7 @@
       <c r="F23" s="34"/>
     </row>
     <row r="24" ht="18.5" spans="1:6">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="34"/>
@@ -2909,7 +2911,7 @@
       <c r="F24" s="34"/>
     </row>
     <row r="25" ht="18.5" spans="1:6">
-      <c r="A25" s="81"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="48"/>
@@ -2917,7 +2919,7 @@
       <c r="F25" s="34"/>
     </row>
     <row r="26" ht="18.5" spans="1:6">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="80" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="34"/>
@@ -2927,7 +2929,7 @@
       <c r="F26" s="34"/>
     </row>
     <row r="27" ht="18.5" spans="1:6">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="34"/>
@@ -2937,7 +2939,7 @@
       <c r="F27" s="34"/>
     </row>
     <row r="28" ht="18.5" spans="1:6">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="34"/>
@@ -2947,7 +2949,7 @@
       <c r="F28" s="34"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="80" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="34"/>
@@ -2957,7 +2959,7 @@
       <c r="F29" s="34"/>
     </row>
     <row r="30" ht="18.5" spans="1:6">
-      <c r="A30" s="81"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="48"/>
@@ -2965,7 +2967,7 @@
       <c r="F30" s="34"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="80" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="34"/>
@@ -2975,7 +2977,7 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" ht="18.5" spans="1:6">
-      <c r="A32" s="81"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="48"/>
@@ -2983,7 +2985,7 @@
       <c r="F32" s="34"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:6">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="34"/>
@@ -3013,7 +3015,7 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" ht="18.5" spans="1:6">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="34"/>
@@ -3023,7 +3025,7 @@
       <c r="F36" s="34"/>
     </row>
     <row r="37" ht="18.5" spans="1:6">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="34"/>
@@ -3111,12 +3113,12 @@
       <c r="A1" s="59">
         <v>45697</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
       <c r="A2" s="37" t="s">
@@ -3185,33 +3187,33 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" ht="18.5" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81">
         <v>0.277777777777778</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="8" ht="18.5" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="56"/>
@@ -3219,53 +3221,53 @@
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="82"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" ht="18.5" spans="1:8">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81">
         <v>0.309027777777778</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="81">
         <v>0.319444444444444</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="81">
         <v>0.322916666666667</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="81">
         <v>0.333333333333333</v>
       </c>
       <c r="H9" s="31"/>
     </row>
     <row r="10" ht="18.5" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>0.347222222222222</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>0.350694444444444</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="81">
         <v>0.350694444444445</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="81">
         <v>0.361111111111111</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="81">
         <v>0.364583333333334</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="81">
         <v>0.375</v>
       </c>
     </row>
     <row r="11" ht="18.5" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="49"/>
@@ -3276,209 +3278,209 @@
       <c r="G11" s="49"/>
     </row>
     <row r="12" ht="18.5" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81">
         <v>0.40625</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" ht="18.5" spans="1:8">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81">
         <v>0.434027777777778</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <v>0.434027777777778</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
         <v>0.447916666666667</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="81">
         <v>0.458333333333332</v>
       </c>
       <c r="H13" s="30"/>
     </row>
     <row r="14" ht="18.5" spans="1:7">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <v>0.472222222222222</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" ht="18.5" spans="1:8">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" ht="18.5" spans="1:7">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="81">
         <v>0.555555555555556</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81">
         <v>0.569444444444444</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <v>0.572916666666667</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="81">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="17" ht="18.5" spans="1:7">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="82"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" ht="18.5" spans="1:7">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="81">
         <v>0.638888888888889</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81">
         <v>0.652777777777778</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="81">
         <v>0.65625</v>
       </c>
-      <c r="G18" s="82"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" ht="18.5" spans="1:7">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" ht="18.5" spans="1:7">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" ht="18.5" spans="1:7">
-      <c r="A21" s="84"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" ht="18.5" spans="1:7">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" ht="18.5" spans="1:7">
-      <c r="A23" s="84"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
     </row>
     <row r="24" ht="18.5" spans="1:7">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" ht="18.5" spans="1:7">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" ht="18.5" spans="1:7">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" ht="18.5" spans="1:7">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
     </row>
     <row r="28" ht="18.5" spans="1:7">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
     </row>
     <row r="29" ht="15.5" spans="2:7">
       <c r="B29" s="34"/>
@@ -3615,17 +3617,17 @@
       <c r="F1" s="24"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3637,7 +3639,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="77"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="4" t="s">
         <v>202</v>
       </c>
@@ -3655,7 +3657,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>207</v>
       </c>
@@ -3866,7 +3868,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="49"/>
-      <c r="B23" s="78"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -3874,7 +3876,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="49"/>
-      <c r="B24" s="78"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -3882,7 +3884,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="49"/>
-      <c r="B25" s="79"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3904,7 +3906,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:6">
       <c r="A28" s="6"/>
-      <c r="B28" s="78"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -3912,7 +3914,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:6">
       <c r="A29" s="6"/>
-      <c r="B29" s="78"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4245,8 +4247,8 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="15"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" ht="15.5" spans="1:12">
       <c r="A14" s="33" t="s">
@@ -4255,8 +4257,8 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="33" t="s">
@@ -4452,54 +4454,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:12">
-      <c r="A1" s="66">
+      <c r="A1" s="65">
         <v>45697</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" ht="18.5" spans="1:12">
       <c r="A2" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" ht="15.5" spans="1:12">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="72"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" ht="15.5" spans="1:12">
       <c r="A4" s="27"/>
@@ -4770,9 +4772,9 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="65"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="36">
         <v>0.527777777777778</v>
       </c>
@@ -5006,7 +5008,7 @@
       <c r="L29" s="15"/>
     </row>
     <row r="30" ht="15.5" spans="1:12">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="70" t="s">
         <v>246</v>
       </c>
       <c r="B30" s="15"/>
@@ -5022,7 +5024,7 @@
       <c r="L30" s="15"/>
     </row>
     <row r="31" ht="15.5" spans="1:12">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>247</v>
       </c>
       <c r="B31" s="15"/>
@@ -5159,7 +5161,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" ht="15.5" spans="1:12">
-      <c r="A40" s="71"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -5331,11 +5333,11 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5478,12 +5480,15 @@
       <c r="D8" s="32">
         <v>0.333333333333333</v>
       </c>
-      <c r="E8" s="32">
-        <v>0.336805555555556</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="32">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.34375</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.347222222222222</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8">
       <c r="A9" s="34" t="s">
@@ -5491,17 +5496,13 @@
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="32">
-        <v>0.340277777777778</v>
-      </c>
-      <c r="G9" s="32">
-        <v>0.34375</v>
-      </c>
-      <c r="H9" s="46">
-        <v>0.347222222222222</v>
-      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="32">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:8">
       <c r="A10" s="34" t="s">
@@ -5729,121 +5730,121 @@
       <c r="H25" s="62"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="33"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="33"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="33"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="33"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="33"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" spans="1:8">
       <c r="A34" s="33"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:8">
       <c r="A35" s="34"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" ht="16.5" customHeight="1" spans="1:8">
       <c r="A36" s="34"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" ht="15.5" spans="1:8">
       <c r="A37" s="34"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" ht="15.5" hidden="1" spans="1:8">
       <c r="A38" s="6" t="s">
@@ -9795,12 +9796,12 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD9"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -10027,7 +10028,9 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="107">
+        <v>0.916666666666667</v>
+      </c>
       <c r="E21" s="17"/>
     </row>
     <row r="22" ht="15.5" spans="1:5">
@@ -10288,10 +10291,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="96" customWidth="1"/>
-    <col min="2" max="2" width="15" style="97" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="97" customWidth="1"/>
-    <col min="4" max="4" width="10.5727272727273" style="97" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="95" customWidth="1"/>
+    <col min="2" max="2" width="15" style="96" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="96" customWidth="1"/>
+    <col min="4" max="4" width="10.5727272727273" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -10311,41 +10314,41 @@
       <c r="D2" s="39"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" ht="18.5" spans="1:4">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" ht="18.5" spans="1:4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="34"/>
@@ -10355,7 +10358,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="34">
@@ -10367,10 +10370,10 @@
       <c r="D7" s="34">
         <v>0.3125</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="100" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="34">
@@ -10382,19 +10385,19 @@
       <c r="D8" s="34">
         <v>0.354166666666667</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="100" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
-      <c r="G9" s="102"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="34">
@@ -10402,10 +10405,10 @@
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="G10" s="102"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="34">
@@ -10413,16 +10416,16 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
-      <c r="G11" s="102"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="103" t="s">
         <v>116</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="G12" s="102"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="33" t="s">
@@ -10470,25 +10473,25 @@
       <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="105"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="34"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="105"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A20" s="105"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="105"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -10545,28 +10548,28 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="104"/>
-      <c r="B30" s="106"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="107"/>
+      <c r="D30" s="106"/>
     </row>
     <row r="31" ht="17.25" hidden="1" customHeight="1" spans="1:4">
       <c r="A31" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="106"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="48">
         <v>0.909722222222222</v>
       </c>
-      <c r="D31" s="106"/>
+      <c r="D31" s="105"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="97">
+      <c r="C34" s="96">
         <v>0</v>
       </c>
     </row>
@@ -10714,7 +10717,7 @@
       <c r="C7" s="34">
         <v>0.309027777777777</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <v>0.3125</v>
       </c>
       <c r="E7" s="17"/>
@@ -10726,7 +10729,7 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="92">
+      <c r="D8" s="91">
         <v>0.354166666666667</v>
       </c>
       <c r="E8" s="17"/>
@@ -10738,7 +10741,7 @@
       <c r="B9" s="48"/>
       <c r="C9" s="34"/>
       <c r="D9" s="46"/>
-      <c r="E9" s="93"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="34" t="s">
@@ -10748,7 +10751,7 @@
       <c r="C10" s="34">
         <v>0.434027777777778</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
@@ -10774,7 +10777,7 @@
         <v>133</v>
       </c>
       <c r="B13" s="48"/>
-      <c r="C13" s="95"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="34"/>
       <c r="E13" s="17"/>
     </row>
@@ -10958,26 +10961,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:7">
-      <c r="A1" s="90">
+      <c r="A1" s="89">
         <v>45697</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
       <c r="A3" s="27" t="s">
@@ -11090,7 +11093,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" ht="15.5" spans="1:7">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="15">
@@ -11303,12 +11306,12 @@
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="20"/>
@@ -11396,13 +11399,13 @@
       <c r="E10" s="34">
         <v>0.361111111111111</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" ht="15.5" spans="1:5">
       <c r="A11" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
